--- a/Projects 2022/Food Court North Walk/328 Invoice for installation of Fire Fighting system - North walk.xlsx
+++ b/Projects 2022/Food Court North Walk/328 Invoice for installation of Fire Fighting system - North walk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5106052-C34D-4C4D-B8A6-1528180263D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F593C-5D7A-43D2-A83D-3ABEB16EDFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,15 @@
     <sheet name="HVAC" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$42</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$25:$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$41</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$24:$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>S. #</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Supply and installation of Hanger &amp; supports for above M.S pipe and fittngs.</t>
   </si>
   <si>
-    <t>Quotation</t>
-  </si>
-  <si>
     <t>Installation of Fire Fighting System - North Walk Shopping Mall</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t xml:space="preserve"> Total after SRB </t>
   </si>
   <si>
-    <t>Attn: Mr. Hussain Bharmal</t>
-  </si>
-  <si>
     <t>SRB 13% on Labour</t>
   </si>
   <si>
@@ -108,7 +102,16 @@
     <t>Painting of M.S Pipe (red oxide + Red)</t>
   </si>
   <si>
-    <t>01 June 2023</t>
+    <t>20-12-23</t>
+  </si>
+  <si>
+    <t>M/S The North Walk (Private) Limited</t>
+  </si>
+  <si>
+    <t>Block-C North Nazimabad Karachi Pakistan</t>
+  </si>
+  <si>
+    <t>Invoice</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,15 +222,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -363,12 +357,6 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,6 +382,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -417,12 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -603,13 +588,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>896938</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>182565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571883</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>31752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -939,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:P43"/>
+  <dimension ref="A4:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -971,235 +956,250 @@
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="46" t="s">
+    <row r="10" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="46" t="s">
+      <c r="F11" s="33">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="35">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="46" t="s">
+      <c r="F12" s="34" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-    </row>
-    <row r="23" spans="1:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
         <v>1</v>
       </c>
+      <c r="B25" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>11</v>
+      </c>
       <c r="B26" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="20">
+        <v>180</v>
+      </c>
+      <c r="E26" s="22">
+        <v>325</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" ref="F26:F31" si="0">E26*D26</f>
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="20">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E27" s="22">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="F27" s="23">
-        <f>E27*D27</f>
-        <v>58500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>2</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="20">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="E28" s="22">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="23">
-        <f>E28*D28</f>
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29" s="20">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="23">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>4</v>
+      </c>
+      <c r="B30" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="E29" s="22">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="23">
-        <f>E29*D29</f>
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
-        <v>3</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>10</v>
@@ -1208,19 +1208,19 @@
         <v>1</v>
       </c>
       <c r="E30" s="22">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F30" s="23">
-        <f>E30*D30</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>10</v>
@@ -1229,75 +1229,63 @@
         <v>1</v>
       </c>
       <c r="E31" s="22">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="F31" s="23">
-        <f>E31*D31</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
-        <v>5</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="22">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="F32" s="23">
-        <f>E32*D32</f>
-        <v>10000</v>
-      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="25">
+        <f>SUM(F26:F31)</f>
+        <v>166500</v>
+      </c>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
+      <c r="A33" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="25">
-        <f>SUM(F27:F32)</f>
-        <v>166500</v>
+        <f>F32*13%</f>
+        <v>21645</v>
       </c>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="25">
-        <f>F33*13%</f>
-        <v>21645</v>
+        <f>F33+F32</f>
+        <v>188145</v>
       </c>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="25">
-        <f>F34+F33</f>
-        <v>188145</v>
-      </c>
-      <c r="G35" s="13"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
@@ -1308,60 +1296,51 @@
       <c r="F36" s="9"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="13"/>
+      <c r="B37" s="36"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="13"/>
+      <c r="K37" s="2"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
       <c r="K38" s="2"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+    </row>
+    <row r="39" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="F39" s="16"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="13"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="F40" s="16"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="13"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="K40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="M40" s="13"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K41" s="2"/>
       <c r="M41" s="13"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="M43" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A32:E32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
